--- a/RestAssuredProject/APITestCase-RMG.xlsx
+++ b/RestAssuredProject/APITestCase-RMG.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -669,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RestAssuredProject/APITestCase-RMG.xlsx
+++ b/RestAssuredProject/APITestCase-RMG.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>testName</t>
   </si>
@@ -83,9 +82,6 @@
   </si>
   <si>
     <t>/addproject</t>
-  </si>
-  <si>
-    <t>addSingleProject</t>
   </si>
   <si>
     <t>RMG_API_01</t>
@@ -203,6 +199,53 @@
     <t>1. Verify the project Name &amp; successful msg &amp; status  in API Response
 2. verify the status of the Project in database
 3. verify the status of the Project in GUI</t>
+  </si>
+  <si>
+    <t>addSingleProjectWithCreated</t>
+  </si>
+  <si>
+    <t>/addProject</t>
+  </si>
+  <si>
+    <t>getAllProjects</t>
+  </si>
+  <si>
+    <t>RMG_API_07</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/projects</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>200,OK</t>
+  </si>
+  <si>
+    <t>1000ms</t>
+  </si>
+  <si>
+    <t>1. should display all projects &amp; display in console
+2. same set of project should be avaible in DB</t>
+  </si>
+  <si>
+    <t>modifyPRojectNAme</t>
+  </si>
+  <si>
+    <t>RMG_API_08</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>/projects/{projectID}</t>
+  </si>
+  <si>
+    <t>1. projectNAme should modified
+2. projectNAme should also modified in DB</t>
   </si>
 </sst>
 </file>
@@ -670,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +722,7 @@
     <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
@@ -796,40 +839,40 @@
     </row>
     <row r="7" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -842,40 +885,40 @@
     </row>
     <row r="8" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="L8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -888,40 +931,40 @@
     </row>
     <row r="9" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -934,40 +977,40 @@
     </row>
     <row r="10" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -980,40 +1023,40 @@
     </row>
     <row r="11" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1026,37 +1069,37 @@
     </row>
     <row r="12" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1068,19 +1111,43 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+    <row r="13" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1">
+        <v>201</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1090,19 +1157,43 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+    <row r="14" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
